--- a/src/test/resources/ContactListPOMProject.xlsx
+++ b/src/test/resources/ContactListPOMProject.xlsx
@@ -4,6 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SignUpTest" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="AddContactTest" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="LoginTest" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ContactEditTest" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ContactDeleteTest" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>First Name</t>
   </si>
@@ -37,35 +41,140 @@
     <t>Vijay8899</t>
   </si>
   <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>RajKumar123@example.com</t>
-  </si>
-  <si>
-    <t>RajKumar1</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>PriyaS89@example.com</t>
-  </si>
-  <si>
-    <t>Priya@123</t>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City, State, Postal</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Expected Outcome</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>NY, USA, 10001</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>smith@example.com</t>
+  </si>
+  <si>
+    <t>456 Elm St</t>
+  </si>
+  <si>
+    <t>CA, USA, 90001</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>789 Oak St</t>
+  </si>
+  <si>
+    <t>TX, USA, 75001</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>expectedOutcome</t>
+  </si>
+  <si>
+    <t>sathyanatrajan8@gmail.com</t>
+  </si>
+  <si>
+    <t>Arun8819</t>
+  </si>
+  <si>
+    <t>Vikram@gmail.com</t>
+  </si>
+  <si>
+    <t>Vikram88</t>
+  </si>
+  <si>
+    <t>New First Name</t>
+  </si>
+  <si>
+    <t>New Last Name</t>
+  </si>
+  <si>
+    <t>New Email</t>
+  </si>
+  <si>
+    <t>New Phone</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>alex.brown@example.com</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>paul.d@example.com</t>
+  </si>
+  <si>
+    <t>alex.b@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.d@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -83,6 +192,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -108,6 +226,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -117,6 +248,22 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -352,32 +499,324 @@
         <v>7</v>
       </c>
     </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9.87654321E9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>32874.0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.876543222E9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>31330.0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.87654321E9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>33739.0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>+91 9988776655</f>
+        <v>#ERROR!</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>+1 2345678901</f>
+        <v>#ERROR!</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9.87654321E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.765432109E9</v>
       </c>
     </row>
   </sheetData>
